--- a/upload/Template.xlsx
+++ b/upload/Template.xlsx
@@ -1,23 +1,196 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8475"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <extLst/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+  <si>
+    <t>CONTROL</t>
+  </si>
+  <si>
+    <t>P_CODE</t>
+  </si>
+  <si>
+    <t>BAR_CODE</t>
+  </si>
+  <si>
+    <t>PARENT</t>
+  </si>
+  <si>
+    <t>MAINKC_NUMBER</t>
+  </si>
+  <si>
+    <t>MAKER</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>EXAMPLE</t>
+  </si>
+  <si>
+    <t>DETAIL</t>
+  </si>
+  <si>
+    <t>BULLET1</t>
+  </si>
+  <si>
+    <t>BULLET2</t>
+  </si>
+  <si>
+    <t>BULLET3</t>
+  </si>
+  <si>
+    <t>BULLET4</t>
+  </si>
+  <si>
+    <t>BULLET5</t>
+  </si>
+  <si>
+    <t>BULLET6</t>
+  </si>
+  <si>
+    <t>CATOGRY</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>PRICE1</t>
+  </si>
+  <si>
+    <t>PRICE2</t>
+  </si>
+  <si>
+    <t>PRICE3</t>
+  </si>
+  <si>
+    <t>S_DATE</t>
+  </si>
+  <si>
+    <t>E_DATE</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>URL1</t>
+  </si>
+  <si>
+    <t>URL2</t>
+  </si>
+  <si>
+    <t>URL3</t>
+  </si>
+  <si>
+    <t>URL4</t>
+  </si>
+  <si>
+    <t>BROWSE1</t>
+  </si>
+  <si>
+    <t>BROWSE2</t>
+  </si>
+  <si>
+    <t>KEYWORD1</t>
+  </si>
+  <si>
+    <t>KEYWORD2</t>
+  </si>
+  <si>
+    <t>KEYWORD3</t>
+  </si>
+  <si>
+    <t>KEYWORD4</t>
+  </si>
+  <si>
+    <t>KEYWORD5</t>
+  </si>
+  <si>
+    <t>KEYWORD6</t>
+  </si>
+  <si>
+    <t>KEYWORD7</t>
+  </si>
+  <si>
+    <t>KEYWORD8</t>
+  </si>
+  <si>
+    <t>KEYWORD9</t>
+  </si>
+  <si>
+    <t>KEYWORD10</t>
+  </si>
+  <si>
+    <t>KID</t>
+  </si>
+  <si>
+    <t>L_ID</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>STATE1</t>
+  </si>
+  <si>
+    <t>STATE2</t>
+  </si>
+  <si>
+    <t>STATE3</t>
+  </si>
+  <si>
+    <t>STATE4</t>
+  </si>
+  <si>
+    <t>STATE5</t>
+  </si>
+  <si>
+    <t>STATE6</t>
+  </si>
+  <si>
+    <t>STATE7</t>
+  </si>
+  <si>
+    <t>STATE8</t>
+  </si>
+  <si>
+    <t>STATE9</t>
+  </si>
+  <si>
+    <t>STATE10</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -39,7 +212,7 @@
         <family val="38"/>
         <charset val="134"/>
       </rPr>
-      <t>(n/u/d)</t>
+      <t>(n/u/r/d)</t>
     </r>
   </si>
   <si>
@@ -90,6 +263,12 @@
     </r>
   </si>
   <si>
+    <t>親子関連</t>
+  </si>
+  <si>
+    <t>实际在库数</t>
+  </si>
+  <si>
     <t>メーカ
 (【IBM・Lenovo・キーボード】)</t>
   </si>
@@ -135,9 +314,6 @@
   </si>
   <si>
     <t>仕入単価</t>
-  </si>
-  <si>
-    <t>メーカー希望卸売価格</t>
   </si>
   <si>
     <t>販売価格</t>
@@ -233,6 +409,33 @@
 （Amazon用）</t>
   </si>
   <si>
+    <t>キーワード5
+（Amazon用）</t>
+  </si>
+  <si>
+    <t>キーワード6
+（Amazon用）</t>
+  </si>
+  <si>
+    <t>キーワード7
+（Amazon用）</t>
+  </si>
+  <si>
+    <t>キーワード8
+（Amazon用）</t>
+  </si>
+  <si>
+    <t>キーワード9
+（Amazon用）</t>
+  </si>
+  <si>
+    <t>キーワード10
+（Amazon用）</t>
+  </si>
+  <si>
+    <t>mainkc ID</t>
+  </si>
+  <si>
     <t>仓库号
 (1)</t>
   </si>
@@ -254,7 +457,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
-        <family val="38"/>
+        <family val="7"/>
         <charset val="134"/>
       </rPr>
       <t>库</t>
@@ -286,53 +489,66 @@
     <t>在庫数</t>
   </si>
   <si>
-    <t>状態</t>
+    <t>状態1</t>
+  </si>
+  <si>
+    <t>状態2</t>
+  </si>
+  <si>
+    <t>状態3</t>
+  </si>
+  <si>
+    <t>状態4</t>
+  </si>
+  <si>
+    <t>状態5</t>
+  </si>
+  <si>
+    <t>状態6</t>
+  </si>
+  <si>
+    <t>状態7</t>
+  </si>
+  <si>
+    <t>状態8</t>
+  </si>
+  <si>
+    <t>状態9</t>
+  </si>
+  <si>
+    <t>状態10</t>
+  </si>
+  <si>
+    <t>笔记</t>
   </si>
   <si>
     <t>備考</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>XIB001</t>
-  </si>
-  <si>
-    <t>521986391919</t>
-  </si>
-  <si>
-    <t>15/16</t>
-  </si>
-  <si>
-    <t>正常販売商品</t>
-  </si>
-  <si>
-    <t>www</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>oo</t>
-  </si>
-  <si>
-    <t>le</t>
-  </si>
-  <si>
-    <t>2F-23-C-0-02</t>
+    <t>PRICE4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>メーカー希望卸売価格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>メーカー希望小売価格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -349,15 +565,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="38"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="FangSong"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="38"/>
       <charset val="134"/>
     </font>
     <font>
@@ -375,23 +597,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="38"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="38"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -412,84 +620,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyProtection="1" quotePrefix="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="4">
+    <cellStyle name="標準" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 3" xfId="3"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
-    <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="標準" xfId="6"/>
-    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -788,6 +995,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -820,27 +1028,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AL3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="12.625" style="2"/>
-    <col min="4" max="6" width="9" style="2"/>
-    <col min="7" max="13" width="20.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.625" style="2" customWidth="1"/>
-    <col min="15" max="19" width="9" style="2"/>
-    <col min="20" max="21" width="9.375" style="2"/>
-    <col min="22" max="263" width="9" style="2"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="57" customHeight="1" spans="1:38">
+    <row r="1" spans="1:58" s="1" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -850,52 +1047,52 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
@@ -904,194 +1101,298 @@
       <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="AN1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:38">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="2">
-        <v>5</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="2">
+    <row r="2" spans="1:58" s="2" customFormat="1" ht="57" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="R2" s="2">
+      <c r="AU2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="S2" s="2">
+      <c r="AV2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="T2" s="2">
-        <v>20151023</v>
-      </c>
-      <c r="U2" s="2">
-        <v>20151023</v>
-      </c>
-      <c r="V2" s="2">
-        <v>7</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>123</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>321</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>322</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>323</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>324</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>325</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>12</v>
-      </c>
-      <c r="AL2" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="13:13">
-      <c r="M3" s="6"/>
+      <c r="AW2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/upload/Template.xlsx
+++ b/upload/Template.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8475"/>
+    <workbookView windowWidth="30720" windowHeight="13770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
   <si>
     <t>CONTROL</t>
   </si>
@@ -84,6 +79,9 @@
     <t>PRICE3</t>
   </si>
   <si>
+    <t>PRICE4</t>
+  </si>
+  <si>
     <t>S_DATE</t>
   </si>
   <si>
@@ -190,6 +188,12 @@
   </si>
   <si>
     <t>BZ</t>
+  </si>
+  <si>
+    <t>ASIN</t>
+  </si>
+  <si>
+    <t>V_NUMBER</t>
   </si>
   <si>
     <r>
@@ -198,7 +202,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">コントロール
@@ -209,7 +213,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>(n/u/r/d)</t>
@@ -222,7 +226,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">商品コード
@@ -233,7 +237,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>(KIB077)</t>
@@ -246,7 +250,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>バーコード</t>
@@ -256,7 +260,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>(521986391918)</t>
@@ -314,6 +318,12 @@
   </si>
   <si>
     <t>仕入単価</t>
+  </si>
+  <si>
+    <t>メーカー希望小売価格</t>
+  </si>
+  <si>
+    <t>メーカー希望卸売価格</t>
   </si>
   <si>
     <t>販売価格</t>
@@ -325,7 +335,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">生産日付
@@ -336,7 +346,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>(20151023)</t>
@@ -349,7 +359,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">廃棄日付
@@ -360,7 +370,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>(20151231)</t>
@@ -446,7 +456,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在</t>
@@ -457,7 +467,6 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
-        <family val="7"/>
         <charset val="134"/>
       </rPr>
       <t>库</t>
@@ -468,7 +477,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>位置</t>
@@ -478,7 +487,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -525,23 +534,45 @@
     <t>備考</t>
   </si>
   <si>
-    <t>PRICE4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>メーカー希望卸売価格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>メーカー希望小売価格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>仮想数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -550,68 +581,376 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="38"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="38"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="38"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="38"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="7"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="7"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -619,82 +958,375 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="39" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="39" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="39" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="標準" xfId="2"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 3" xfId="3"/>
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="標準 3" xfId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="標準 2" xfId="39"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="40" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
+    <cellStyle name="標準" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -746,71 +1378,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1023,21 +1655,21 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="BE2" sqref="BE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:58" s="1" customFormat="1" ht="15">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:60">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1102,297 +1734,308 @@
         <v>20</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="57" customHeight="1" spans="1:60">
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB2" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58" s="2" customFormat="1" ht="57" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="BC2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="BE2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AV2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX2" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY2" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ2" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB2" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="BC2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD2" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE2" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF2" s="6" t="s">
-        <v>112</v>
+      <c r="BH2" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/upload/Template.xlsx
+++ b/upload/Template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6F7DFC-ADE7-495E-91F3-3047AFAA7C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13770"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
   <si>
     <t>CONTROL</t>
   </si>
@@ -467,6 +473,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>库</t>
@@ -536,18 +543,43 @@
   <si>
     <t>仮想数</t>
   </si>
+  <si>
+    <t>PACKAGE_SIZE</t>
+  </si>
+  <si>
+    <t>P_KID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>親</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>グループの数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -571,7 +603,7 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -592,365 +624,47 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -958,375 +672,95 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="39" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="39" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="39" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="4">
+    <cellStyle name="標準" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="標準 3" xfId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="標準 2" xfId="39"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="40" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
-    <cellStyle name="標準" xfId="51"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1655,21 +1089,25 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BH2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="BE2" sqref="BE2"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="60" max="60" width="16.75" customWidth="1"/>
+    <col min="61" max="61" width="16.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:60">
+    <row r="1" spans="1:62" s="1" customFormat="1" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1850,8 +1288,14 @@
       <c r="BH1" s="13" t="s">
         <v>59</v>
       </c>
+      <c r="BI1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="57" customHeight="1" spans="1:60">
+    <row r="2" spans="1:62" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
@@ -2032,10 +1476,17 @@
       <c r="BH2" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="BI2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ2" s="16" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>